--- a/Excel/SpodaDataOutput.xlsx
+++ b/Excel/SpodaDataOutput.xlsx
@@ -26,30 +26,28 @@
     <t>Answers</t>
   </si>
   <si>
-    <t xml:space="preserve">Against top-order batsmen at the Eden Gardens, which bowler has the lowest bowling strike rate in the first six overs in the second innings in the year 2024?
-</t>
+    <t>What is the average number of runs Mumbai have made in wins in overs 1-6 in the 2024 IPL?</t>
   </si>
   <si>
-    <t>9.626</t>
+    <t>4.259</t>
   </si>
   <si>
-    <t>28</t>
+    <t>26</t>
   </si>
   <si>
-    <t>Command mismatch! Please rephrase and retry.</t>
+    <t>1.63</t>
   </si>
   <si>
-    <t>Give me the names of top 5 batsman from Gujarat titans and delhi capitals who have faced the most no of balls faced per innings in 2024?</t>
+    <t>What is the average number of runs Mumbai have made in wins in overs 1-6 in the 2024 IPL? - &gt; this question repeatedIeB</t>
   </si>
   <si>
-    <t>5.593</t>
+    <t>2.376</t>
   </si>
   <si>
-    <t>20</t>
+    <t>5</t>
   </si>
   <si>
-    <t>Top 5 batsmen from Gujarat Titans with most balls faced per innings in 2024: Shubman Gill, B Sai Sudharsan, R Tewatia, Rashid Khan, WP Saha
-Top 5 batsmen from Delhi Capitals with most balls faced per innings in 2024: RR Pant, Abishek Porel, T Stubbs, DA Warner, AR Patel</t>
+    <t>1.78</t>
   </si>
 </sst>
 </file>
